--- a/JupyterNotebooks/AveragedIntensites/GossA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossA-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1072,7 @@
         <v>0.9838600376175911</v>
       </c>
       <c r="E13">
-        <v>1.005877367761608</v>
+        <v>1.005877367761607</v>
       </c>
       <c r="F13">
         <v>0.996241027770477</v>
@@ -1099,13 +1099,13 @@
         <v>0.9813328007554135</v>
       </c>
       <c r="N13">
-        <v>0.9948687026895995</v>
+        <v>0.9948687026895993</v>
       </c>
       <c r="O13">
-        <v>0.9918270117165822</v>
+        <v>0.9918270117165819</v>
       </c>
       <c r="P13">
-        <v>0.9928580397282091</v>
+        <v>0.992858039728209</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1172,7 +1172,7 @@
         <v>1.239648285085894</v>
       </c>
       <c r="E15">
-        <v>0.984143677795323</v>
+        <v>0.9841436777953232</v>
       </c>
       <c r="F15">
         <v>0.9593104618075039</v>
@@ -1184,10 +1184,10 @@
         <v>1.239648285085894</v>
       </c>
       <c r="I15">
-        <v>0.9644317021841151</v>
+        <v>0.9644317021841152</v>
       </c>
       <c r="J15">
-        <v>0.9700759480451603</v>
+        <v>0.9700759480451602</v>
       </c>
       <c r="K15">
         <v>0.9527240021869781</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>1.017165145969458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>2.018785056086185</v>
+      </c>
+      <c r="D16">
+        <v>2.056121120826005</v>
+      </c>
+      <c r="E16">
+        <v>1.634508309208395</v>
+      </c>
+      <c r="F16">
+        <v>0.7388292315594466</v>
+      </c>
+      <c r="G16">
+        <v>2.018785056086185</v>
+      </c>
+      <c r="H16">
+        <v>2.056121120826005</v>
+      </c>
+      <c r="I16">
+        <v>1.050463488344989</v>
+      </c>
+      <c r="J16">
+        <v>0.5806850065064968</v>
+      </c>
+      <c r="K16">
+        <v>1.021648733139336</v>
+      </c>
+      <c r="L16">
+        <v>0.8781271138853387</v>
+      </c>
+      <c r="M16">
+        <v>2.018785056086185</v>
+      </c>
+      <c r="N16">
+        <v>1.8453147150172</v>
+      </c>
+      <c r="O16">
+        <v>1.612060929420008</v>
+      </c>
+      <c r="P16">
+        <v>1.247396007444524</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>2.018785056086185</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW10.xlsx
@@ -1075,7 +1075,7 @@
         <v>0.9838600376175911</v>
       </c>
       <c r="E13">
-        <v>1.005877367761607</v>
+        <v>1.005877367761608</v>
       </c>
       <c r="F13">
         <v>0.996241027770477</v>
@@ -1102,13 +1102,13 @@
         <v>0.9813328007554135</v>
       </c>
       <c r="N13">
-        <v>0.9948687026895993</v>
+        <v>0.9948687026895995</v>
       </c>
       <c r="O13">
-        <v>0.9918270117165819</v>
+        <v>0.9918270117165822</v>
       </c>
       <c r="P13">
-        <v>0.992858039728209</v>
+        <v>0.9928580397282091</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1175,7 +1175,7 @@
         <v>1.239648285085894</v>
       </c>
       <c r="E15">
-        <v>0.9841436777953232</v>
+        <v>0.984143677795323</v>
       </c>
       <c r="F15">
         <v>0.9593104618075039</v>
@@ -1187,10 +1187,10 @@
         <v>1.239648285085894</v>
       </c>
       <c r="I15">
-        <v>0.9644317021841152</v>
+        <v>0.9644317021841151</v>
       </c>
       <c r="J15">
-        <v>0.9700759480451602</v>
+        <v>0.9700759480451603</v>
       </c>
       <c r="K15">
         <v>0.9527240021869781</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.018785056086185</v>
       </c>
       <c r="D10">
-        <v>2.392376000000007</v>
+        <v>2.056121120826005</v>
       </c>
       <c r="E10">
-        <v>4.576016000000003</v>
+        <v>1.634508309208395</v>
       </c>
       <c r="F10">
-        <v>0.2558239999999998</v>
+        <v>0.7388292315594466</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.018785056086185</v>
       </c>
       <c r="H10">
-        <v>2.392376000000007</v>
+        <v>2.056121120826005</v>
       </c>
       <c r="I10">
-        <v>1.39418</v>
+        <v>1.050463488344989</v>
       </c>
       <c r="J10">
-        <v>1.170812</v>
+        <v>0.5806850065064968</v>
       </c>
       <c r="K10">
-        <v>0.05374399999999981</v>
+        <v>1.021648733139336</v>
       </c>
       <c r="L10">
-        <v>0.979444000000003</v>
+        <v>0.8781271138853387</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.018785056086185</v>
       </c>
       <c r="N10">
-        <v>3.484196000000005</v>
+        <v>1.8453147150172</v>
       </c>
       <c r="O10">
-        <v>1.806054000000002</v>
+        <v>1.612060929420008</v>
       </c>
       <c r="P10">
-        <v>1.352799500000001</v>
+        <v>1.247396007444524</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -972,43 +981,43 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3.563089281232255</v>
       </c>
       <c r="E11">
-        <v>7.650550000000003</v>
+        <v>1.559426470653133</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0.5167963296042508</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.563089281232255</v>
       </c>
       <c r="I11">
-        <v>2.397512500000005</v>
+        <v>0.4979775931499223</v>
       </c>
       <c r="J11">
-        <v>0.8908250000000003</v>
+        <v>1.78345674844514</v>
       </c>
       <c r="K11">
-        <v>0.04</v>
+        <v>0.08727927503991484</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.661787810905623</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.825275000000001</v>
+        <v>2.561257875942694</v>
       </c>
       <c r="O11">
-        <v>1.915137500000001</v>
+        <v>1.40982802037241</v>
       </c>
       <c r="P11">
-        <v>1.373610937500001</v>
+        <v>1.20872668862878</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.424147589324806</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4300469861376049</v>
+        <v>3.57031561225003</v>
       </c>
       <c r="E12">
-        <v>4.725924619264004</v>
+        <v>1.540973837564633</v>
       </c>
       <c r="F12">
-        <v>0.407864331468798</v>
+        <v>0.5182766746288745</v>
       </c>
       <c r="G12">
-        <v>0.424147589324806</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.4300469861376049</v>
+        <v>3.57031561225003</v>
       </c>
       <c r="I12">
-        <v>1.811344470732795</v>
+        <v>0.4913381217411473</v>
       </c>
       <c r="J12">
-        <v>0.9468965909503991</v>
+        <v>1.787669925213792</v>
       </c>
       <c r="K12">
-        <v>0.4404363624447993</v>
+        <v>0.0874534275581257</v>
       </c>
       <c r="L12">
-        <v>0.4119654467584001</v>
+        <v>1.665985788892413</v>
       </c>
       <c r="M12">
-        <v>0.424173062553606</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.577985802700804</v>
+        <v>2.555644724907332</v>
       </c>
       <c r="O12">
-        <v>1.496995881548803</v>
+        <v>1.407391531110884</v>
       </c>
       <c r="P12">
-        <v>1.199828299635201</v>
+        <v>1.207751673481127</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9813296137166525</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9838600376175911</v>
+        <v>3.562501612822962</v>
       </c>
       <c r="E13">
-        <v>1.005877367761608</v>
+        <v>1.553384977716487</v>
       </c>
       <c r="F13">
-        <v>0.996241027770477</v>
+        <v>0.5172521053421978</v>
       </c>
       <c r="G13">
-        <v>0.9813296137166525</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.9838600376175911</v>
+        <v>3.562501612822962</v>
       </c>
       <c r="I13">
-        <v>0.9969457478229776</v>
+        <v>0.4953156636663871</v>
       </c>
       <c r="J13">
-        <v>0.9923119986392369</v>
+        <v>1.786140249288871</v>
       </c>
       <c r="K13">
-        <v>0.9959362005835859</v>
+        <v>0.08738987830544981</v>
       </c>
       <c r="L13">
-        <v>0.9903623239135438</v>
+        <v>1.662430743069581</v>
       </c>
       <c r="M13">
-        <v>0.9813328007554135</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9948687026895995</v>
+        <v>2.557943295269724</v>
       </c>
       <c r="O13">
-        <v>0.9918270117165822</v>
+        <v>1.408284673970412</v>
       </c>
       <c r="P13">
-        <v>0.9928580397282091</v>
+        <v>1.208051903776492</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.292504258358423</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1.377496938145186</v>
+        <v>2.392376000000007</v>
       </c>
       <c r="E14">
-        <v>0.9562114723102951</v>
+        <v>4.576016000000003</v>
       </c>
       <c r="F14">
-        <v>0.964342631762048</v>
+        <v>0.2558239999999998</v>
       </c>
       <c r="G14">
-        <v>1.292504258358423</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1.377496938145186</v>
+        <v>2.392376000000007</v>
       </c>
       <c r="I14">
-        <v>0.9269566650268798</v>
+        <v>1.39418</v>
       </c>
       <c r="J14">
-        <v>1.026646801348446</v>
+        <v>1.170812</v>
       </c>
       <c r="K14">
-        <v>0.8806293173617331</v>
+        <v>0.05374399999999981</v>
       </c>
       <c r="L14">
-        <v>0.9519580305852714</v>
+        <v>0.979444000000003</v>
       </c>
       <c r="M14">
-        <v>1.292437783746311</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.166854205227741</v>
+        <v>3.484196000000005</v>
       </c>
       <c r="O14">
-        <v>1.147638825143988</v>
+        <v>1.806054000000002</v>
       </c>
       <c r="P14">
-        <v>1.047093264362286</v>
+        <v>1.352799500000001</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9980678637560858</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1.239648285085894</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.984143677795323</v>
+        <v>7.650550000000003</v>
       </c>
       <c r="F15">
-        <v>0.9593104618075039</v>
+        <v>0.01</v>
       </c>
       <c r="G15">
-        <v>0.9980678637560858</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1.239648285085894</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9644317021841151</v>
+        <v>2.397512500000005</v>
       </c>
       <c r="J15">
-        <v>0.9700759480451603</v>
+        <v>0.8908250000000003</v>
       </c>
       <c r="K15">
-        <v>0.9527240021869781</v>
+        <v>0.04</v>
       </c>
       <c r="L15">
-        <v>1.068919226894605</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9981394480227012</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.111895981440608</v>
+        <v>3.825275000000001</v>
       </c>
       <c r="O15">
-        <v>1.045292572111202</v>
+        <v>1.915137500000001</v>
       </c>
       <c r="P15">
-        <v>1.017165145969458</v>
+        <v>1.373610937500001</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.018785056086185</v>
+        <v>0.424147589324806</v>
       </c>
       <c r="D16">
-        <v>2.056121120826005</v>
+        <v>0.4300469861376049</v>
       </c>
       <c r="E16">
-        <v>1.634508309208395</v>
+        <v>4.725924619264004</v>
       </c>
       <c r="F16">
-        <v>0.7388292315594466</v>
+        <v>0.407864331468798</v>
       </c>
       <c r="G16">
-        <v>2.018785056086185</v>
+        <v>0.424147589324806</v>
       </c>
       <c r="H16">
-        <v>2.056121120826005</v>
+        <v>0.4300469861376049</v>
       </c>
       <c r="I16">
-        <v>1.050463488344989</v>
+        <v>1.811344470732795</v>
       </c>
       <c r="J16">
-        <v>0.5806850065064968</v>
+        <v>0.9468965909503991</v>
       </c>
       <c r="K16">
-        <v>1.021648733139336</v>
+        <v>0.4404363624447993</v>
       </c>
       <c r="L16">
-        <v>0.8781271138853387</v>
+        <v>0.4119654467584001</v>
       </c>
       <c r="M16">
-        <v>2.018785056086185</v>
+        <v>0.424173062553606</v>
       </c>
       <c r="N16">
-        <v>1.8453147150172</v>
+        <v>2.577985802700804</v>
       </c>
       <c r="O16">
-        <v>1.612060929420008</v>
+        <v>1.496995881548803</v>
       </c>
       <c r="P16">
-        <v>1.247396007444524</v>
+        <v>1.199828299635201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9813296137166525</v>
+      </c>
+      <c r="D17">
+        <v>0.9838600376175911</v>
+      </c>
+      <c r="E17">
+        <v>1.005877367761607</v>
+      </c>
+      <c r="F17">
+        <v>0.996241027770477</v>
+      </c>
+      <c r="G17">
+        <v>0.9813296137166525</v>
+      </c>
+      <c r="H17">
+        <v>0.9838600376175911</v>
+      </c>
+      <c r="I17">
+        <v>0.9969457478229776</v>
+      </c>
+      <c r="J17">
+        <v>0.9923119986392369</v>
+      </c>
+      <c r="K17">
+        <v>0.9959362005835859</v>
+      </c>
+      <c r="L17">
+        <v>0.9903623239135438</v>
+      </c>
+      <c r="M17">
+        <v>0.9813328007554135</v>
+      </c>
+      <c r="N17">
+        <v>0.9948687026895993</v>
+      </c>
+      <c r="O17">
+        <v>0.9918270117165819</v>
+      </c>
+      <c r="P17">
+        <v>0.992858039728209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.292504258358423</v>
+      </c>
+      <c r="D18">
+        <v>1.377496938145186</v>
+      </c>
+      <c r="E18">
+        <v>0.9562114723102951</v>
+      </c>
+      <c r="F18">
+        <v>0.964342631762048</v>
+      </c>
+      <c r="G18">
+        <v>1.292504258358423</v>
+      </c>
+      <c r="H18">
+        <v>1.377496938145186</v>
+      </c>
+      <c r="I18">
+        <v>0.9269566650268798</v>
+      </c>
+      <c r="J18">
+        <v>1.026646801348446</v>
+      </c>
+      <c r="K18">
+        <v>0.8806293173617331</v>
+      </c>
+      <c r="L18">
+        <v>0.9519580305852714</v>
+      </c>
+      <c r="M18">
+        <v>1.292437783746311</v>
+      </c>
+      <c r="N18">
+        <v>1.166854205227741</v>
+      </c>
+      <c r="O18">
+        <v>1.147638825143988</v>
+      </c>
+      <c r="P18">
+        <v>1.047093264362286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9980678637560858</v>
+      </c>
+      <c r="D19">
+        <v>1.239648285085894</v>
+      </c>
+      <c r="E19">
+        <v>0.9841436777953232</v>
+      </c>
+      <c r="F19">
+        <v>0.9593104618075039</v>
+      </c>
+      <c r="G19">
+        <v>0.9980678637560858</v>
+      </c>
+      <c r="H19">
+        <v>1.239648285085894</v>
+      </c>
+      <c r="I19">
+        <v>0.9644317021841152</v>
+      </c>
+      <c r="J19">
+        <v>0.9700759480451602</v>
+      </c>
+      <c r="K19">
+        <v>0.9527240021869781</v>
+      </c>
+      <c r="L19">
+        <v>1.068919226894605</v>
+      </c>
+      <c r="M19">
+        <v>0.9981394480227012</v>
+      </c>
+      <c r="N19">
+        <v>1.111895981440608</v>
+      </c>
+      <c r="O19">
+        <v>1.045292572111202</v>
+      </c>
+      <c r="P19">
+        <v>1.017165145969458</v>
       </c>
     </row>
   </sheetData>
